--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Subject</t>
   </si>
@@ -85,7 +85,19 @@
     <t>I was hesitating about the fact that only 1 word within a Textview should be clickable and I must be missing some easy workaround. Right now I think about using the string.xml and creating multiple Textviews which contain tekst whereas ONE Textview contains the hyperlink, continued with the rest of the text.</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>Had to study the whole Google maps API and deal with restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the address </t>
+  </si>
+  <si>
+    <t>Google maps API</t>
+  </si>
+  <si>
+    <t>Asking user to turn on gps</t>
+  </si>
+  <si>
+    <t>15.5</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +554,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -589,7 +601,7 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -651,22 +663,36 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Subject</t>
   </si>
@@ -88,16 +88,28 @@
     <t>Had to study the whole Google maps API and deal with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting the address </t>
-  </si>
-  <si>
     <t>Google maps API</t>
   </si>
   <si>
     <t>Asking user to turn on gps</t>
   </si>
   <si>
-    <t>15.5</t>
+    <t>Phone call towards RZR</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Getting the address +and present it to the view</t>
+  </si>
+  <si>
+    <t>trying to present the view with multiple lines</t>
+  </si>
+  <si>
+    <t>I have to implement a infowindow adapter but there is no priority in doing that</t>
+  </si>
+  <si>
+    <t>16.5</t>
   </si>
 </sst>
 </file>
@@ -520,7 +532,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +566,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -664,7 +676,7 @@
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -677,23 +689,27 @@
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
@@ -705,58 +721,68 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Subject</t>
   </si>
@@ -82,9 +82,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>I was hesitating about the fact that only 1 word within a Textview should be clickable and I must be missing some easy workaround. Right now I think about using the string.xml and creating multiple Textviews which contain tekst whereas ONE Textview contains the hyperlink, continued with the rest of the text.</t>
-  </si>
-  <si>
     <t>Had to study the whole Google maps API and deal with restrictions</t>
   </si>
   <si>
@@ -109,7 +106,16 @@
     <t>I have to implement a infowindow adapter but there is no priority in doing that</t>
   </si>
   <si>
-    <t>16.5</t>
+    <t>Phone call button in the google maps activity</t>
+  </si>
+  <si>
+    <t>Asking user to turn on internet</t>
+  </si>
+  <si>
+    <t>I didnt know there was an attribute for it but I fixed it</t>
+  </si>
+  <si>
+    <t>This was a little harder than expected, Android 6.0 Marshmallow you need to implement the permissions request all by yourself. But I got it now :)</t>
   </si>
 </sst>
 </file>
@@ -565,8 +571,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
+      <c r="E2" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,79 +675,97 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Subject</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>This was a little harder than expected, Android 6.0 Marshmallow you need to implement the permissions request all by yourself. But I got it now :)</t>
+  </si>
+  <si>
+    <t>All Strings into the Strings.xml</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>button variable names and title app change</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,8 +583,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6">
-        <v>21</v>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,10 +780,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Subject</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>button variable names and title app change</t>
+  </si>
+  <si>
+    <t>Correcting google maps zooming</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>color toolbar</t>
   </si>
 </sst>
 </file>
@@ -550,7 +562,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +814,26 @@
       </c>
     </row>
     <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Subject</t>
   </si>
@@ -52,27 +52,15 @@
     <t>Example 2</t>
   </si>
   <si>
-    <t>Had issues with scaling the background properly</t>
-  </si>
-  <si>
     <t>Layout splashscreen</t>
   </si>
   <si>
     <t>Layout toolbar</t>
   </si>
   <si>
-    <t>The correct color, icon and backbutton</t>
-  </si>
-  <si>
     <t>Layout toolbar buttons</t>
   </si>
   <si>
-    <t>I don't know how to place the buttons at the correct place(there must be a standard implementation for this)</t>
-  </si>
-  <si>
-    <t>Only issue here is I'm doubting whether I should cut the images and edit them so they fit exactly like the real RSR App, or its just more important to make the working functions</t>
-  </si>
-  <si>
     <t>Made a Github repository, Studied the files I have and the urls ive been recommanded to read. Checked some examples for android applications</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>Had to study the whole Google maps API and deal with restrictions</t>
-  </si>
-  <si>
     <t>Google maps API</t>
   </si>
   <si>
@@ -103,19 +88,10 @@
     <t>trying to present the view with multiple lines</t>
   </si>
   <si>
-    <t>I have to implement a infowindow adapter but there is no priority in doing that</t>
-  </si>
-  <si>
     <t>Phone call button in the google maps activity</t>
   </si>
   <si>
     <t>Asking user to turn on internet</t>
-  </si>
-  <si>
-    <t>I didnt know there was an attribute for it but I fixed it</t>
-  </si>
-  <si>
-    <t>This was a little harder than expected, Android 6.0 Marshmallow you need to implement the permissions request all by yourself. But I got it now :)</t>
   </si>
   <si>
     <t>All Strings into the Strings.xml</t>
@@ -562,7 +538,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +572,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -641,198 +617,198 @@
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Subject</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>color toolbar</t>
+  </si>
+  <si>
+    <t>can't get the button to scale right</t>
+  </si>
+  <si>
+    <t>9-patch and drawable</t>
+  </si>
+  <si>
+    <t>google maps custom infowindow</t>
+  </si>
+  <si>
+    <t>had problem with getting the correct xml layout</t>
   </si>
 </sst>
 </file>
@@ -537,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +824,26 @@
       </c>
     </row>
     <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Subject</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>had problem with getting the correct xml layout</t>
+  </si>
+  <si>
+    <t>Infoscherm verbetert</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>transparent color done but still can't got the layout right</t>
   </si>
 </sst>
 </file>
@@ -549,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +855,26 @@
       </c>
     </row>
     <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Subject</t>
   </si>
@@ -97,9 +97,6 @@
     <t>All Strings into the Strings.xml</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>color toolbar</t>
   </si>
   <si>
-    <t>can't get the button to scale right</t>
-  </si>
-  <si>
     <t>9-patch and drawable</t>
   </si>
   <si>
@@ -137,6 +131,21 @@
   </si>
   <si>
     <t>transparent color done but still can't got the layout right</t>
+  </si>
+  <si>
+    <t>scaling the RSR Pechhulp button</t>
+  </si>
+  <si>
+    <t>still cant manage it to scale when I rotate my phone</t>
+  </si>
+  <si>
+    <t>can't get the button to scale right when I rotate</t>
+  </si>
+  <si>
+    <t>done(it works on my phone I hope it does work on your device too) solved by adding paddings</t>
+  </si>
+  <si>
+    <t>37.5</t>
   </si>
 </sst>
 </file>
@@ -558,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +602,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,10 +810,10 @@
     </row>
     <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -812,10 +821,10 @@
     </row>
     <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -823,10 +832,10 @@
     </row>
     <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -834,32 +843,32 @@
     </row>
     <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -867,20 +876,36 @@
     </row>
     <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-    </row>
     <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>

--- a/Hours log.xlsx
+++ b/Hours log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Desktop\RZRPechhulp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Desktop\RSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Subject</t>
   </si>
@@ -121,31 +124,37 @@
     <t>google maps custom infowindow</t>
   </si>
   <si>
-    <t>had problem with getting the correct xml layout</t>
-  </si>
-  <si>
     <t>Infoscherm verbetert</t>
   </si>
   <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>transparent color done but still can't got the layout right</t>
-  </si>
-  <si>
     <t>scaling the RSR Pechhulp button</t>
   </si>
   <si>
-    <t>still cant manage it to scale when I rotate my phone</t>
-  </si>
-  <si>
-    <t>can't get the button to scale right when I rotate</t>
-  </si>
-  <si>
-    <t>done(it works on my phone I hope it does work on your device too) solved by adding paddings</t>
-  </si>
-  <si>
-    <t>37.5</t>
+    <t>screenshots eruit gesloopt</t>
+  </si>
+  <si>
+    <t>butterknife toegevoegd</t>
+  </si>
+  <si>
+    <t>code optimalisatie</t>
+  </si>
+  <si>
+    <t>google maps implementatie verbeteren</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>nog niet af</t>
+  </si>
+  <si>
+    <t>MVP structuur</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
@@ -253,8 +262,36 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -568,7 +605,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +639,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -849,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -860,15 +897,15 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -882,89 +919,127 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
       <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
